--- a/SchedulingData/dynamic16/pso/scheduling1_8.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_8.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.7</v>
+        <v>68.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.88</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="D3" t="n">
-        <v>70.38</v>
+        <v>126.08</v>
       </c>
       <c r="E3" t="n">
-        <v>25.632</v>
+        <v>22.192</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="E4" t="n">
-        <v>26.7</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.38</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>114.18</v>
+        <v>56.9</v>
       </c>
       <c r="E5" t="n">
-        <v>22.392</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>76.90000000000001</v>
+        <v>63.08</v>
       </c>
       <c r="E6" t="n">
-        <v>25.5</v>
+        <v>26.352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>107.7</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>114.18</v>
+        <v>107.7</v>
       </c>
       <c r="D8" t="n">
-        <v>166.14</v>
+        <v>161.2</v>
       </c>
       <c r="E8" t="n">
-        <v>18.336</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="9">
@@ -599,283 +599,283 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>76.86</v>
+        <v>60.48</v>
       </c>
       <c r="E9" t="n">
-        <v>25.464</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.32</v>
+        <v>54.12</v>
       </c>
       <c r="E10" t="n">
-        <v>23.708</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>126.08</v>
       </c>
       <c r="D11" t="n">
-        <v>101.8</v>
+        <v>181.58</v>
       </c>
       <c r="E11" t="n">
-        <v>23.62</v>
+        <v>19.752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76.86</v>
+        <v>54.12</v>
       </c>
       <c r="D12" t="n">
-        <v>160.18</v>
+        <v>112.62</v>
       </c>
       <c r="E12" t="n">
-        <v>21.252</v>
+        <v>22.548</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>76.90000000000001</v>
+        <v>161.2</v>
       </c>
       <c r="D13" t="n">
-        <v>137</v>
+        <v>235.2</v>
       </c>
       <c r="E13" t="n">
-        <v>21.12</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>101.8</v>
+        <v>112.62</v>
       </c>
       <c r="D14" t="n">
-        <v>172.52</v>
+        <v>171.08</v>
       </c>
       <c r="E14" t="n">
-        <v>20.188</v>
+        <v>19.332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>137</v>
+        <v>63.08</v>
       </c>
       <c r="D15" t="n">
-        <v>175.56</v>
+        <v>117.98</v>
       </c>
       <c r="E15" t="n">
-        <v>17.904</v>
+        <v>22.972</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>172.52</v>
+        <v>60.48</v>
       </c>
       <c r="D16" t="n">
-        <v>216.5</v>
+        <v>142.1</v>
       </c>
       <c r="E16" t="n">
-        <v>17.9</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>101.32</v>
+        <v>117.98</v>
       </c>
       <c r="D17" t="n">
-        <v>184.32</v>
+        <v>175.18</v>
       </c>
       <c r="E17" t="n">
-        <v>19.508</v>
+        <v>19.852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>166.14</v>
+        <v>181.58</v>
       </c>
       <c r="D18" t="n">
-        <v>215.4</v>
+        <v>223.38</v>
       </c>
       <c r="E18" t="n">
-        <v>15.52</v>
+        <v>16.712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62.7</v>
+        <v>235.2</v>
       </c>
       <c r="D19" t="n">
-        <v>136.14</v>
+        <v>334.7</v>
       </c>
       <c r="E19" t="n">
-        <v>22.176</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>160.18</v>
+        <v>171.08</v>
       </c>
       <c r="D20" t="n">
-        <v>197.1</v>
+        <v>221.28</v>
       </c>
       <c r="E20" t="n">
-        <v>18.7</v>
+        <v>14.952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>215.4</v>
+        <v>142.1</v>
       </c>
       <c r="D21" t="n">
-        <v>293.66</v>
+        <v>195.08</v>
       </c>
       <c r="E21" t="n">
-        <v>12.304</v>
+        <v>18.432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>136.14</v>
+        <v>334.7</v>
       </c>
       <c r="D22" t="n">
-        <v>203.24</v>
+        <v>379.56</v>
       </c>
       <c r="E22" t="n">
-        <v>19.096</v>
+        <v>10.764</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>197.1</v>
+        <v>175.18</v>
       </c>
       <c r="D23" t="n">
-        <v>249.4</v>
+        <v>239.38</v>
       </c>
       <c r="E23" t="n">
-        <v>15.58</v>
+        <v>17.532</v>
       </c>
     </row>
     <row r="24">
@@ -884,226 +884,226 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>293.66</v>
+        <v>56.9</v>
       </c>
       <c r="D24" t="n">
-        <v>342.6</v>
+        <v>104.3</v>
       </c>
       <c r="E24" t="n">
-        <v>9.52</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>216.5</v>
+        <v>104.3</v>
       </c>
       <c r="D25" t="n">
-        <v>261.3</v>
+        <v>159.2</v>
       </c>
       <c r="E25" t="n">
-        <v>15.06</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>261.3</v>
+        <v>223.38</v>
       </c>
       <c r="D26" t="n">
-        <v>310.56</v>
+        <v>265.48</v>
       </c>
       <c r="E26" t="n">
-        <v>11.264</v>
+        <v>13.632</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>175.56</v>
+        <v>159.2</v>
       </c>
       <c r="D27" t="n">
-        <v>238.88</v>
+        <v>237.86</v>
       </c>
       <c r="E27" t="n">
-        <v>13.692</v>
+        <v>15.204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>184.32</v>
+        <v>239.38</v>
       </c>
       <c r="D28" t="n">
-        <v>230.62</v>
+        <v>316.14</v>
       </c>
       <c r="E28" t="n">
-        <v>16.988</v>
+        <v>13.476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>342.6</v>
+        <v>195.08</v>
       </c>
       <c r="D29" t="n">
-        <v>396.7</v>
+        <v>255.08</v>
       </c>
       <c r="E29" t="n">
-        <v>7.2</v>
+        <v>14.052</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>203.24</v>
+        <v>255.08</v>
       </c>
       <c r="D30" t="n">
-        <v>273.14</v>
+        <v>346.34</v>
       </c>
       <c r="E30" t="n">
-        <v>15.736</v>
+        <v>9.516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>273.14</v>
+        <v>379.56</v>
       </c>
       <c r="D31" t="n">
-        <v>355.84</v>
+        <v>419.9</v>
       </c>
       <c r="E31" t="n">
-        <v>11.576</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>230.62</v>
+        <v>419.9</v>
       </c>
       <c r="D32" t="n">
-        <v>285.72</v>
+        <v>487.1</v>
       </c>
       <c r="E32" t="n">
-        <v>13.608</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>355.84</v>
+        <v>221.28</v>
       </c>
       <c r="D33" t="n">
-        <v>411.18</v>
+        <v>277.96</v>
       </c>
       <c r="E33" t="n">
-        <v>8.672000000000001</v>
+        <v>11.424</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>238.88</v>
+        <v>237.86</v>
       </c>
       <c r="D34" t="n">
-        <v>308.76</v>
+        <v>301.1</v>
       </c>
       <c r="E34" t="n">
-        <v>9.324</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>396.7</v>
+        <v>277.96</v>
       </c>
       <c r="D35" t="n">
-        <v>454.28</v>
+        <v>341.16</v>
       </c>
       <c r="E35" t="n">
-        <v>3.552</v>
+        <v>7.224</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>249.4</v>
+        <v>346.34</v>
       </c>
       <c r="D36" t="n">
-        <v>320.02</v>
+        <v>385.48</v>
       </c>
       <c r="E36" t="n">
-        <v>12.588</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>320.02</v>
+        <v>487.1</v>
       </c>
       <c r="D37" t="n">
-        <v>366.82</v>
+        <v>552.84</v>
       </c>
       <c r="E37" t="n">
-        <v>9.548</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>310.56</v>
+        <v>552.84</v>
       </c>
       <c r="D38" t="n">
-        <v>358.06</v>
+        <v>638.09</v>
       </c>
       <c r="E38" t="n">
-        <v>8.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>411.18</v>
+        <v>316.14</v>
       </c>
       <c r="D39" t="n">
-        <v>459.68</v>
+        <v>370.24</v>
       </c>
       <c r="E39" t="n">
-        <v>4.952</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>454.28</v>
+        <v>370.24</v>
       </c>
       <c r="D40" t="n">
-        <v>493.66</v>
+        <v>434.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0.744</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>493.66</v>
+        <v>301.1</v>
       </c>
       <c r="D41" t="n">
-        <v>573.87</v>
+        <v>361.92</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>7.508</v>
       </c>
     </row>
     <row r="42">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>308.76</v>
+        <v>341.16</v>
       </c>
       <c r="D42" t="n">
-        <v>373.86</v>
+        <v>385.54</v>
       </c>
       <c r="E42" t="n">
-        <v>5.944</v>
+        <v>4.416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>285.72</v>
+        <v>434.2</v>
       </c>
       <c r="D43" t="n">
-        <v>345.92</v>
+        <v>485.82</v>
       </c>
       <c r="E43" t="n">
-        <v>9.228</v>
+        <v>4.808</v>
       </c>
     </row>
     <row r="44">
@@ -1264,112 +1264,112 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>366.82</v>
+        <v>385.48</v>
       </c>
       <c r="D44" t="n">
-        <v>433</v>
+        <v>454.28</v>
       </c>
       <c r="E44" t="n">
-        <v>6.02</v>
+        <v>3.432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>373.86</v>
+        <v>361.92</v>
       </c>
       <c r="D45" t="n">
-        <v>435.02</v>
+        <v>450.14</v>
       </c>
       <c r="E45" t="n">
-        <v>1.968</v>
+        <v>3.296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>435.02</v>
+        <v>265.48</v>
       </c>
       <c r="D46" t="n">
-        <v>507.98</v>
+        <v>316</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>345.92</v>
+        <v>450.14</v>
       </c>
       <c r="D47" t="n">
-        <v>409.22</v>
+        <v>513.7</v>
       </c>
       <c r="E47" t="n">
-        <v>5.988</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>459.68</v>
+        <v>513.7</v>
       </c>
       <c r="D48" t="n">
-        <v>526.78</v>
+        <v>605.24</v>
       </c>
       <c r="E48" t="n">
-        <v>1.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>526.78</v>
+        <v>605.24</v>
       </c>
       <c r="D49" t="n">
-        <v>630.38</v>
+        <v>672.64</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="50">
@@ -1378,52 +1378,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>358.06</v>
+        <v>638.09</v>
       </c>
       <c r="D50" t="n">
-        <v>420.6</v>
+        <v>701.99</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>420.6</v>
+        <v>485.82</v>
       </c>
       <c r="D51" t="n">
-        <v>474.86</v>
+        <v>533.96</v>
       </c>
       <c r="E51" t="n">
-        <v>0.204</v>
+        <v>2.104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>474.86</v>
+        <v>533.96</v>
       </c>
       <c r="D52" t="n">
-        <v>575.75</v>
+        <v>626.15</v>
       </c>
       <c r="E52" t="n">
         <v>30</v>
@@ -1431,45 +1431,45 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>573.87</v>
+        <v>626.15</v>
       </c>
       <c r="D53" t="n">
-        <v>644.5700000000001</v>
+        <v>704.55</v>
       </c>
       <c r="E53" t="n">
-        <v>27.56</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>409.22</v>
+        <v>454.28</v>
       </c>
       <c r="D54" t="n">
-        <v>462.52</v>
+        <v>501.88</v>
       </c>
       <c r="E54" t="n">
-        <v>1.788</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>462.52</v>
+        <v>501.88</v>
       </c>
       <c r="D55" t="n">
-        <v>555.34</v>
+        <v>568.26</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1488,40 +1488,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>555.34</v>
+        <v>704.55</v>
       </c>
       <c r="D56" t="n">
-        <v>623.24</v>
+        <v>767.97</v>
       </c>
       <c r="E56" t="n">
-        <v>26.36</v>
+        <v>21.588</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>623.24</v>
+        <v>672.64</v>
       </c>
       <c r="D57" t="n">
-        <v>671.02</v>
+        <v>733.9400000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>22.712</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="58">
@@ -1530,150 +1530,150 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>671.02</v>
+        <v>316</v>
       </c>
       <c r="D58" t="n">
-        <v>725.78</v>
+        <v>401.86</v>
       </c>
       <c r="E58" t="n">
-        <v>19.856</v>
+        <v>6.224</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>575.75</v>
+        <v>568.26</v>
       </c>
       <c r="D59" t="n">
-        <v>644.1900000000001</v>
+        <v>653.16</v>
       </c>
       <c r="E59" t="n">
-        <v>27.296</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>725.78</v>
+        <v>733.9400000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>770.88</v>
+        <v>768.22</v>
       </c>
       <c r="E60" t="n">
-        <v>16.976</v>
+        <v>22.112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>507.98</v>
+        <v>401.86</v>
       </c>
       <c r="D61" t="n">
-        <v>596.6</v>
+        <v>466.74</v>
       </c>
       <c r="E61" t="n">
-        <v>25.788</v>
+        <v>1.856</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>433</v>
+        <v>466.74</v>
       </c>
       <c r="D62" t="n">
-        <v>484.62</v>
+        <v>544.73</v>
       </c>
       <c r="E62" t="n">
-        <v>1.988</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>484.62</v>
+        <v>544.73</v>
       </c>
       <c r="D63" t="n">
-        <v>562.54</v>
+        <v>605.77</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>562.54</v>
+        <v>385.54</v>
       </c>
       <c r="D64" t="n">
-        <v>623.58</v>
+        <v>453.08</v>
       </c>
       <c r="E64" t="n">
-        <v>27.536</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>630.38</v>
+        <v>453.08</v>
       </c>
       <c r="D65" t="n">
-        <v>692.02</v>
+        <v>558.9400000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>26.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>596.6</v>
+        <v>558.9400000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>659.38</v>
+        <v>630.16</v>
       </c>
       <c r="E66" t="n">
-        <v>22.62</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>644.1900000000001</v>
+        <v>630.16</v>
       </c>
       <c r="D67" t="n">
-        <v>717.99</v>
+        <v>699.02</v>
       </c>
       <c r="E67" t="n">
-        <v>23.996</v>
+        <v>23.212</v>
       </c>
     </row>
   </sheetData>
